--- a/BackTest/2019-10-30 BackTest ETC.xlsx
+++ b/BackTest/2019-10-30 BackTest ETC.xlsx
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -10146,17 +10146,13 @@
         <v>5666</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>5630</v>
-      </c>
-      <c r="K279" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
@@ -10191,16 +10187,12 @@
         <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>5615</v>
+        <v>5630</v>
       </c>
       <c r="K280" t="n">
         <v>5630</v>
       </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10234,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>5630</v>
+        <v>5615</v>
       </c>
       <c r="K281" t="n">
         <v>5630</v>
@@ -10277,12 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>5635</v>
+        <v>5630</v>
       </c>
       <c r="K282" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L282" t="inlineStr"/>
+        <v>5630</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10316,16 +10312,12 @@
         <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>5645</v>
+        <v>5635</v>
       </c>
       <c r="K283" t="n">
         <v>5635</v>
       </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10359,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>5650</v>
+        <v>5645</v>
       </c>
       <c r="K284" t="n">
         <v>5635</v>
@@ -10396,65 +10388,63 @@
         <v>5645.25</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
         <v>5635</v>
       </c>
       <c r="L285" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5645</v>
+      </c>
+      <c r="C286" t="n">
+        <v>5650</v>
+      </c>
+      <c r="D286" t="n">
+        <v>5650</v>
+      </c>
+      <c r="E286" t="n">
+        <v>5645</v>
+      </c>
+      <c r="F286" t="n">
+        <v>8.915900000000001</v>
+      </c>
+      <c r="G286" t="n">
+        <v>5643.25</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>5645</v>
+      </c>
+      <c r="K286" t="n">
+        <v>5635</v>
+      </c>
+      <c r="L286" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>5645</v>
-      </c>
-      <c r="C286" t="n">
-        <v>5650</v>
-      </c>
-      <c r="D286" t="n">
-        <v>5650</v>
-      </c>
-      <c r="E286" t="n">
-        <v>5645</v>
-      </c>
-      <c r="F286" t="n">
-        <v>8.915900000000001</v>
-      </c>
-      <c r="G286" t="n">
-        <v>5643.25</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>5645</v>
-      </c>
-      <c r="K286" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10488,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>5645</v>
+        <v>5650</v>
       </c>
       <c r="K287" t="n">
         <v>5635</v>
@@ -10531,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>5650</v>
+        <v>5645</v>
       </c>
       <c r="K288" t="n">
         <v>5635</v>
@@ -10568,14 +10558,12 @@
         <v>5636.75</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>5655</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
         <v>5635</v>
       </c>
@@ -10611,14 +10599,12 @@
         <v>5635.25</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
         <v>5635</v>
       </c>
@@ -10654,14 +10640,12 @@
         <v>5633.75</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>5635</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
         <v>5635</v>
       </c>
@@ -10697,14 +10681,12 @@
         <v>5634.25</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
         <v>5635</v>
       </c>
@@ -10740,14 +10722,12 @@
         <v>5634.5</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>5640</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
         <v>5635</v>
       </c>
@@ -10783,14 +10763,12 @@
         <v>5637.25</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
         <v>5635</v>
       </c>
@@ -10826,14 +10804,12 @@
         <v>5639.75</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>5655</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
         <v>5635</v>
       </c>
@@ -10869,14 +10845,12 @@
         <v>5641.75</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
         <v>5635</v>
       </c>
@@ -10912,14 +10886,12 @@
         <v>5644.5</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
         <v>5635</v>
       </c>
@@ -10955,14 +10927,12 @@
         <v>5646.5</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
         <v>5635</v>
       </c>
@@ -10998,14 +10968,12 @@
         <v>5648</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
         <v>5635</v>
       </c>
@@ -11041,14 +11009,12 @@
         <v>5649.5</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
         <v>5635</v>
       </c>
@@ -11084,14 +11050,12 @@
         <v>5651.75</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>5675</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
         <v>5635</v>
       </c>
@@ -11127,14 +11091,12 @@
         <v>5653.75</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>5675</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
         <v>5635</v>
       </c>
@@ -11170,14 +11132,12 @@
         <v>5655.5</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>5680</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
         <v>5635</v>
       </c>
@@ -11541,14 +11501,12 @@
         <v>5662.25</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
         <v>5635</v>
       </c>
@@ -11584,14 +11542,12 @@
         <v>5662.75</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
         <v>5635</v>
       </c>
@@ -11627,14 +11583,12 @@
         <v>5662.25</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
         <v>5635</v>
       </c>
@@ -11670,14 +11624,12 @@
         <v>5662.5</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
         <v>5635</v>
       </c>
@@ -11713,14 +11665,12 @@
         <v>5662.75</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>5665</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
         <v>5635</v>
       </c>
@@ -11756,14 +11706,12 @@
         <v>5662</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
         <v>5635</v>
       </c>
@@ -11799,14 +11747,12 @@
         <v>5662.25</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>5665</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
         <v>5635</v>
       </c>
@@ -11842,14 +11788,12 @@
         <v>5662.5</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>5665</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
         <v>5635</v>
       </c>
@@ -11885,14 +11829,12 @@
         <v>5663.25</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
         <v>5635</v>
       </c>
@@ -11928,14 +11870,12 @@
         <v>5663</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>5670</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
         <v>5635</v>
       </c>
@@ -11971,14 +11911,12 @@
         <v>5662</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>5655</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
         <v>5635</v>
       </c>
@@ -12055,14 +11993,12 @@
         <v>5658.5</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>5640</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
         <v>5635</v>
       </c>
@@ -12098,14 +12034,12 @@
         <v>5656.75</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
         <v>5635</v>
       </c>
@@ -12141,14 +12075,12 @@
         <v>5655</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
         <v>5635</v>
       </c>
@@ -12184,14 +12116,12 @@
         <v>5654.25</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
         <v>5635</v>
       </c>
@@ -12227,14 +12157,12 @@
         <v>5654.75</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
         <v>5635</v>
       </c>
@@ -12270,14 +12198,12 @@
         <v>5655.5</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>5665</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
         <v>5635</v>
       </c>
@@ -12313,14 +12239,12 @@
         <v>5656.5</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>5670</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
         <v>5635</v>
       </c>
@@ -12356,14 +12280,12 @@
         <v>5657</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>5670</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
         <v>5635</v>
       </c>
@@ -12399,14 +12321,12 @@
         <v>5657.5</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>5655</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
         <v>5635</v>
       </c>
@@ -12442,14 +12362,12 @@
         <v>5657.75</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>5655</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
         <v>5635</v>
       </c>
@@ -12485,14 +12403,12 @@
         <v>5658.5</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>5665</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
         <v>5635</v>
       </c>
@@ -12528,14 +12444,12 @@
         <v>5658</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
         <v>5635</v>
       </c>
@@ -12571,14 +12485,12 @@
         <v>5657.75</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
         <v>5635</v>
       </c>
@@ -12614,14 +12526,12 @@
         <v>5657.5</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>5640</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
         <v>5635</v>
       </c>
@@ -12657,14 +12567,12 @@
         <v>5656.25</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>5640</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
         <v>5635</v>
       </c>
@@ -12700,14 +12608,12 @@
         <v>5655.5</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
         <v>5635</v>
       </c>
@@ -12743,14 +12649,12 @@
         <v>5654</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
         <v>5635</v>
       </c>
@@ -12786,14 +12690,12 @@
         <v>5652</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
         <v>5635</v>
       </c>
@@ -12829,14 +12731,12 @@
         <v>5650.75</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
         <v>5635</v>
       </c>
@@ -12872,14 +12772,12 @@
         <v>5649.75</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
         <v>5635</v>
       </c>
@@ -12915,14 +12813,12 @@
         <v>5650.5</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>5655</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
         <v>5635</v>
       </c>
@@ -12958,14 +12854,12 @@
         <v>5650.5</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>5650</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
         <v>5635</v>
       </c>
@@ -13001,14 +12895,12 @@
         <v>5649.5</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>5640</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
         <v>5635</v>
       </c>
@@ -13044,14 +12936,12 @@
         <v>5649</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>5635</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
         <v>5635</v>
       </c>
@@ -13087,14 +12977,12 @@
         <v>5648</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>5640</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
         <v>5635</v>
       </c>
@@ -13130,14 +13018,12 @@
         <v>5646.5</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>5635</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
         <v>5635</v>
       </c>
@@ -13173,14 +13059,12 @@
         <v>5644.5</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
         <v>5635</v>
       </c>
@@ -13216,14 +13100,12 @@
         <v>5642.5</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
         <v>5635</v>
       </c>
@@ -13259,14 +13141,12 @@
         <v>5641.75</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>5640</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
         <v>5635</v>
       </c>
@@ -13302,14 +13182,12 @@
         <v>5641.75</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>5655</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
         <v>5635</v>
       </c>
@@ -13345,14 +13223,12 @@
         <v>5642</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>5670</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
         <v>5635</v>
       </c>
@@ -13388,14 +13264,12 @@
         <v>5643.25</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>5675</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
         <v>5635</v>
       </c>
@@ -13431,14 +13305,12 @@
         <v>5644</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>5675</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
         <v>5635</v>
       </c>
@@ -13474,14 +13346,12 @@
         <v>5645</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
         <v>5635</v>
       </c>
@@ -13517,14 +13387,12 @@
         <v>5646.5</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>5670</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
         <v>5635</v>
       </c>
@@ -13560,14 +13428,12 @@
         <v>5647</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
         <v>5635</v>
       </c>
@@ -13603,14 +13469,12 @@
         <v>5648.75</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>5665</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
         <v>5635</v>
       </c>
@@ -13646,14 +13510,12 @@
         <v>5650.75</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>5670</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
         <v>5635</v>
       </c>
@@ -13689,14 +13551,12 @@
         <v>5652.75</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>5670</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
         <v>5635</v>
       </c>
@@ -13732,14 +13592,12 @@
         <v>5655</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>5675</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
         <v>5635</v>
       </c>
@@ -14021,14 +13879,12 @@
         <v>5661.25</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
         <v>5635</v>
       </c>
@@ -14064,14 +13920,12 @@
         <v>5662.75</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>5660</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
         <v>5635</v>
       </c>
@@ -14107,14 +13961,12 @@
         <v>5664.5</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>5675</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
         <v>5635</v>
       </c>
@@ -14150,14 +14002,12 @@
         <v>5665.5</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>5675</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
         <v>5635</v>
       </c>
@@ -14811,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
@@ -14819,11 +14669,11 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>1</v>
+        <v>1.018070097604259</v>
       </c>
     </row>
     <row r="390">
@@ -14855,14 +14705,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14896,14 +14740,8 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14937,14 +14775,8 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14978,14 +14810,8 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15019,14 +14845,8 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15060,14 +14880,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15101,14 +14915,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15142,14 +14950,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15183,14 +14985,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15224,14 +15020,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15265,14 +15055,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15306,14 +15090,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15347,14 +15125,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15388,14 +15160,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15429,14 +15195,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15470,14 +15230,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15511,14 +15265,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15552,14 +15300,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15593,14 +15335,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15634,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15675,14 +15405,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15716,14 +15440,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15757,14 +15475,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15798,14 +15510,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15839,14 +15545,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15880,14 +15580,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15921,14 +15615,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15962,14 +15650,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16003,14 +15685,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16044,14 +15720,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16082,19 +15752,13 @@
         <v>0</v>
       </c>
       <c r="I420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>5635</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
-        <v>1.013633540372671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -16123,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
@@ -16158,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
@@ -16193,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest ETC.xlsx
+++ b/BackTest/2019-10-30 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>16580.03208437573</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>16462.96948437572</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>15660.62438437572</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>14376.39268437573</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>14878.69178437573</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>15295.30508437573</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>15295.30508437573</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15531.37858437573</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>16550.74088437573</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>16494.94158437573</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>16194.64248437573</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>16194.64248437573</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>15619.27168437573</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>15619.27168437573</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>15540.13678437573</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>15879.88558437573</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>15691.21898437573</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>15594.64868437573</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>15433.97308437573</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>16660.65578437573</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>16724.82848437572</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>16315.92938437572</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>17585.93538437572</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>18379.86108437572</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>18329.41438437572</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>18331.41438437572</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>18331.24318437572</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>15990.99575183739</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>15757.84037238534</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>15344.22817238533</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>15252.63037238533</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>15292.63037238533</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>15432.63037238533</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>15073.82707238533</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>15074.02707238534</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>15074.02707238534</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>15170.41607238533</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>15256.68967238534</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>15327.73567238534</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>17152.71872285663</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>17118.52982285662</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>16415.81782285662</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>16538.55760306053</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>12918.02650306053</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>13720.27560306053</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>14417.22940306053</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>14846.86740306053</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>14846.86740306053</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>14638.60580306053</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14738.17500306053</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14710.22780306053</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>14819.03550306053</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>14811.56000306053</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>14425.97000306053</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>14425.97000306053</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>14104.00710306053</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13533.73750306053</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13573.08430306053</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13559.41670306053</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>13613.35130306053</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>13276.93920306053</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>13276.93920306053</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>13618.25800306053</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>12967.64420306053</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>12971.95472487405</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>12606.50692487405</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>12618.10042487405</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>11872.77052487405</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>11832.77052487405</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>11821.71762487405</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>11751.57372487405</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>11837.85500183695</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>11558.94050183695</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>10813.54570183695</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>10813.54570183695</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>9603.915301836947</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>9603.915301836947</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>9745.960425346022</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>9745.960425346022</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>9763.157325346023</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>9729.175325346023</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>9729.558098817168</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>9685.505098817168</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -11473,11 +11473,17 @@
         <v>-598.2229627087428</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>5620</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11512,17 @@
         <v>-468.3250627087428</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>5610</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11551,17 @@
         <v>-467.7250627087428</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>5620</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11590,17 @@
         <v>-478.1250627087427</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>5630</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11629,17 @@
         <v>-467.8179627087428</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>5615</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11668,17 @@
         <v>-262.0024627087428</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>5630</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11707,17 @@
         <v>-247.7007627087428</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>5635</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,15 +11746,17 @@
         <v>-165.7899627087428</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>5645</v>
       </c>
-      <c r="J343" t="n">
-        <v>5645</v>
-      </c>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,17 +11785,15 @@
         <v>-274.0885627087428</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>5650</v>
       </c>
-      <c r="J344" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -11782,14 +11824,12 @@
         <v>-265.1726627087427</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>5645</v>
       </c>
-      <c r="J345" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11823,14 +11863,12 @@
         <v>-280.1512627087427</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>5650</v>
       </c>
-      <c r="J346" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11864,14 +11902,12 @@
         <v>-271.9405627087427</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>5645</v>
       </c>
-      <c r="J347" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11905,14 +11941,12 @@
         <v>-270.9405627087427</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>5650</v>
       </c>
-      <c r="J348" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11946,14 +11980,12 @@
         <v>-335.7591627087427</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>5655</v>
       </c>
-      <c r="J349" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11987,12 +12019,12 @@
         <v>-335.7591627087427</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>5650</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12026,12 +12058,12 @@
         <v>-324.3700627087428</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>5650</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12065,12 +12097,12 @@
         <v>-324.3700627087428</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12104,12 +12136,12 @@
         <v>-324.3700627087428</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12143,12 +12175,12 @@
         <v>-331.5071095699275</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,12 +12214,12 @@
         <v>-329.0243095699275</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12221,12 +12253,12 @@
         <v>-329.0243095699275</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12260,12 +12292,12 @@
         <v>-329.0243095699275</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12299,12 +12331,12 @@
         <v>-1353.370509569927</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,12 +12370,12 @@
         <v>-1532.990609569928</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>5650</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12377,14 +12409,12 @@
         <v>-1427.990609569928</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>5645</v>
       </c>
-      <c r="J360" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12418,12 +12448,12 @@
         <v>-1427.990609569928</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12457,12 +12487,12 @@
         <v>-1427.490609569928</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,12 +12526,12 @@
         <v>-1352.010809569927</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>5680</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,9 +12568,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12577,9 +12605,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12616,9 +12642,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12655,9 +12679,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12694,9 +12716,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12730,12 +12750,12 @@
         <v>-1605.781321308674</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>5650</v>
+      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12769,12 +12789,12 @@
         <v>-912.452521308674</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>5640</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12808,12 +12828,12 @@
         <v>-924.249521308674</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12847,12 +12867,12 @@
         <v>-839.2848213086741</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
         <v>5645</v>
       </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12886,12 +12906,12 @@
         <v>-839.2848213086741</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>5650</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12928,9 +12948,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12964,12 +12982,12 @@
         <v>-828.6099347362359</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13006,9 +13024,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13042,12 +13058,12 @@
         <v>-955.0892347362359</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
         <v>5645</v>
       </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13081,12 +13097,12 @@
         <v>-955.0892347362359</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>5665</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13120,12 +13136,12 @@
         <v>-165.3587347362359</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>5665</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,9 +13178,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,9 +13215,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,9 +13252,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13279,9 +13289,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13315,12 +13323,12 @@
         <v>-728.1431347362359</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>5640</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13354,12 +13362,12 @@
         <v>-727.9431347362358</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>5650</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13393,12 +13401,12 @@
         <v>-732.4340347362358</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13432,12 +13440,12 @@
         <v>-730.4340347362358</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
         <v>5645</v>
       </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13471,12 +13479,12 @@
         <v>-729.4340347362358</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13510,14 +13518,12 @@
         <v>-681.4379347362359</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>5665</v>
       </c>
-      <c r="J389" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13551,12 +13557,12 @@
         <v>-681.4379347362359</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>5670</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13590,14 +13596,12 @@
         <v>-687.7461347362359</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>5670</v>
       </c>
-      <c r="J391" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13631,12 +13635,12 @@
         <v>-687.7461347362359</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,14 +13674,12 @@
         <v>-686.7461347362359</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>5655</v>
       </c>
-      <c r="J393" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,12 +13713,12 @@
         <v>-1403.248234736236</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>5665</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13750,12 +13752,12 @@
         <v>-1403.048234736236</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>5650</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13789,14 +13791,12 @@
         <v>-2158.804834736236</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>5660</v>
       </c>
-      <c r="J396" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13830,12 +13830,12 @@
         <v>-2158.804834736236</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>5640</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13869,12 +13869,12 @@
         <v>-2123.754834736236</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>5640</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13908,12 +13908,12 @@
         <v>-2164.554834736236</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13947,12 +13947,12 @@
         <v>-2164.554834736236</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>5630</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13986,14 +13986,12 @@
         <v>-2164.554834736236</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>5630</v>
       </c>
-      <c r="J401" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14027,14 +14025,12 @@
         <v>-2164.554834736236</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>5630</v>
       </c>
-      <c r="J402" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14068,14 +14064,12 @@
         <v>-2164.354834736236</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>5630</v>
       </c>
-      <c r="J403" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14109,14 +14103,12 @@
         <v>-2227.756934736236</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>5655</v>
       </c>
-      <c r="J404" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14150,14 +14142,12 @@
         <v>-2271.094234736236</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>5650</v>
       </c>
-      <c r="J405" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14191,14 +14181,12 @@
         <v>-2571.393334736236</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>5640</v>
       </c>
-      <c r="J406" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14232,14 +14220,12 @@
         <v>-2571.193157431272</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>5635</v>
       </c>
-      <c r="J407" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14273,14 +14259,12 @@
         <v>-2605.414857431272</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>5640</v>
       </c>
-      <c r="J408" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14314,12 +14298,12 @@
         <v>-2616.786257431272</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>5635</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14353,14 +14337,12 @@
         <v>-2616.786257431272</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>5630</v>
       </c>
-      <c r="J410" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14394,14 +14376,12 @@
         <v>-2520.086257431272</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>5630</v>
       </c>
-      <c r="J411" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14435,14 +14415,12 @@
         <v>-2493.393157431272</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>5645</v>
       </c>
-      <c r="J412" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14476,14 +14454,12 @@
         <v>-2215.572357431272</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>5655</v>
       </c>
-      <c r="J413" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14517,14 +14493,12 @@
         <v>-2214.572357431272</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>5670</v>
       </c>
-      <c r="J414" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14558,12 +14532,12 @@
         <v>-2214.572357431272</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14597,14 +14571,12 @@
         <v>-2739.876157431272</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>5675</v>
       </c>
-      <c r="J416" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14638,12 +14610,12 @@
         <v>-2636.276157431272</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14677,14 +14649,12 @@
         <v>-2641.706157431272</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>5670</v>
       </c>
-      <c r="J418" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,14 +14688,12 @@
         <v>-2641.506157431272</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>5660</v>
       </c>
-      <c r="J419" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,14 +14727,12 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>5665</v>
       </c>
-      <c r="J420" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14800,14 +14766,12 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>5670</v>
       </c>
-      <c r="J421" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14841,14 +14805,12 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>5670</v>
       </c>
-      <c r="J422" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14882,14 +14844,12 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>5675</v>
       </c>
-      <c r="J423" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14923,14 +14883,12 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>5675</v>
       </c>
-      <c r="J424" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14964,12 +14922,12 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15003,12 +14961,12 @@
         <v>-3669.369657431272</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,12 +15000,12 @@
         <v>-4515.205157431272</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>5630</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15081,12 +15039,12 @@
         <v>-3896.895257431272</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>5625</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15120,14 +15078,12 @@
         <v>-4018.995257431272</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>5675</v>
       </c>
-      <c r="J429" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15161,12 +15117,12 @@
         <v>-3440.181757431272</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15200,12 +15156,12 @@
         <v>-3220.694357431272</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>5665</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15239,12 +15195,12 @@
         <v>-2887.143157431272</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>5670</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15278,12 +15234,12 @@
         <v>-2887.143157431272</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>5680</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15317,12 +15273,12 @@
         <v>-2830.638740749972</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>5680</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15356,12 +15312,12 @@
         <v>-2892.306840749972</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>5695</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,12 +15351,12 @@
         <v>-2890.372940749972</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15434,12 +15390,12 @@
         <v>-2890.372940749972</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>5700</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15476,9 +15432,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15515,9 +15469,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15554,9 +15506,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15593,9 +15543,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15632,9 +15580,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15671,9 +15617,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15710,9 +15654,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15749,9 +15691,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15788,9 +15728,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15827,9 +15765,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15866,9 +15802,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15905,9 +15839,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15944,9 +15876,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15983,9 +15913,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16019,12 +15947,12 @@
         <v>1499.140259250028</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>5705</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16061,9 +15989,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16097,12 +16023,12 @@
         <v>1429.629259250028</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>5705</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16136,12 +16062,12 @@
         <v>1389.753359250028</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>5715</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16175,12 +16101,12 @@
         <v>1361.315459250028</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>5710</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16217,9 +16143,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16256,9 +16180,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16292,12 +16214,12 @@
         <v>1302.745759250028</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>5700</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16331,12 +16253,12 @@
         <v>1302.745759250028</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>5700</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16370,12 +16292,12 @@
         <v>1302.745759250028</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>5645</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>5700</v>
+      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16412,9 +16334,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16451,9 +16371,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16490,9 +16408,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16529,9 +16445,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16568,9 +16482,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16607,9 +16519,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16646,9 +16556,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16685,9 +16593,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16724,9 +16630,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16763,9 +16667,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16802,9 +16704,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16841,9 +16741,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16880,9 +16778,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16919,9 +16815,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16958,9 +16852,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16997,9 +16889,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17036,9 +16926,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17075,9 +16963,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17114,9 +17000,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17153,9 +17037,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17192,9 +17074,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17231,9 +17111,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17270,9 +17148,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17309,9 +17185,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17348,9 +17222,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17387,9 +17259,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17426,9 +17296,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17465,9 +17333,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17504,9 +17370,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17543,9 +17407,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17582,9 +17444,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17621,9 +17481,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17660,9 +17518,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17699,9 +17555,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17738,9 +17592,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17777,9 +17629,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17816,9 +17666,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17855,9 +17703,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17894,9 +17740,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17933,9 +17777,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17972,9 +17814,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>5645</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,6 +17826,6 @@
       <c r="M502" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ETC.xlsx
+++ b/BackTest/2019-10-30 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>14376.39268437573</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>14878.69178437573</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>15295.30508437573</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>15295.30508437573</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15531.37858437573</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>16550.74088437573</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>16494.94158437573</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>16194.64248437573</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>16194.64248437573</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>15619.27168437573</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>15619.27168437573</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>15540.13678437573</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>15879.88558437573</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>15691.21898437573</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>15594.64868437573</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>15433.97308437573</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>16660.65578437573</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>16724.82848437572</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>16315.92938437572</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>17585.93538437572</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>18379.86108437572</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>18329.41438437572</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>18331.41438437572</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>18331.24318437572</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>15990.99575183739</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>15757.84037238534</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>15344.22817238533</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>15252.63037238533</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>15292.63037238533</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>15432.63037238533</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>15189.64297238533</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>15073.82707238533</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>15074.02707238534</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>15074.02707238534</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>15170.41607238533</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>15256.68967238534</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>15327.73567238534</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>14294.24250306053</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>12918.02650306053</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>14622.63230306053</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>13720.27560306053</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>14417.22940306053</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>14846.86740306053</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>14846.86740306053</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>14638.60580306053</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14738.17500306053</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14710.22780306053</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>14819.03550306053</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>14811.56000306053</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>14425.97000306053</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>14425.97000306053</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>14104.00710306053</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13533.73750306053</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13573.08430306053</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13559.41670306053</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>13613.35130306053</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>13276.93920306053</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>13276.93920306053</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>13618.25800306053</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>12967.64420306053</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>12971.95472487405</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>12606.50692487405</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>12618.10042487405</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>11872.77052487405</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>11832.77052487405</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>11821.71762487405</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>11751.57372487405</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>11837.85500183695</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>11558.94050183695</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>10813.54570183695</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>10813.54570183695</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>9603.915301836947</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>9603.915301836947</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>9745.960425346022</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>9745.960425346022</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>9763.157325346023</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>9729.175325346023</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>9729.558098817168</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>9685.505098817168</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -11473,17 +11473,11 @@
         <v>-598.2229627087428</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>5620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11512,17 +11506,11 @@
         <v>-468.3250627087428</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>5610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11551,17 +11539,11 @@
         <v>-467.7250627087428</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>5620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11590,17 +11572,11 @@
         <v>-478.1250627087427</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11634,12 +11610,10 @@
       <c r="I340" t="n">
         <v>5615</v>
       </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="n">
+        <v>5615</v>
+      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11673,10 +11647,12 @@
       <c r="I341" t="n">
         <v>5630</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>5615</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L341" t="n">
@@ -11707,15 +11683,15 @@
         <v>-247.7007627087428</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>5635</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>5615</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -11746,17 +11722,11 @@
         <v>-165.7899627087428</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11785,17 +11755,11 @@
         <v>-274.0885627087428</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11824,17 +11788,11 @@
         <v>-265.1726627087427</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11863,17 +11821,11 @@
         <v>-280.1512627087427</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11902,17 +11854,11 @@
         <v>-271.9405627087427</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11941,17 +11887,11 @@
         <v>-270.9405627087427</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11980,17 +11920,11 @@
         <v>-335.7591627087427</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>5655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12019,17 +11953,11 @@
         <v>-335.7591627087427</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12058,17 +11986,11 @@
         <v>-324.3700627087428</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12097,17 +12019,11 @@
         <v>-324.3700627087428</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12136,17 +12052,11 @@
         <v>-324.3700627087428</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12175,17 +12085,11 @@
         <v>-331.5071095699275</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12214,17 +12118,11 @@
         <v>-329.0243095699275</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>5655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12253,17 +12151,11 @@
         <v>-329.0243095699275</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12292,17 +12184,11 @@
         <v>-329.0243095699275</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12331,17 +12217,11 @@
         <v>-1353.370509569927</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12370,17 +12250,11 @@
         <v>-1532.990609569928</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12409,17 +12283,11 @@
         <v>-1427.990609569928</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12448,17 +12316,11 @@
         <v>-1427.990609569928</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12487,17 +12349,11 @@
         <v>-1427.490609569928</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12526,17 +12382,11 @@
         <v>-1352.010809569927</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>5680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12569,11 +12419,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12606,11 +12452,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12643,11 +12485,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12680,11 +12518,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12717,11 +12551,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12750,17 +12580,11 @@
         <v>-1605.781321308674</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12789,17 +12613,11 @@
         <v>-912.452521308674</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>5640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12828,17 +12646,11 @@
         <v>-924.249521308674</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12867,17 +12679,11 @@
         <v>-839.2848213086741</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12906,17 +12712,11 @@
         <v>-839.2848213086741</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12949,11 +12749,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12982,17 +12778,11 @@
         <v>-828.6099347362359</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13025,11 +12815,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13058,17 +12844,11 @@
         <v>-955.0892347362359</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13097,17 +12877,11 @@
         <v>-955.0892347362359</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13136,17 +12910,11 @@
         <v>-165.3587347362359</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13179,11 +12947,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13216,11 +12980,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13253,11 +13013,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13290,11 +13046,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13323,17 +13075,11 @@
         <v>-728.1431347362359</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>5640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13367,12 +13113,10 @@
       <c r="I385" t="n">
         <v>5650</v>
       </c>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="n">
+        <v>5650</v>
+      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13401,15 +13145,15 @@
         <v>-732.4340347362358</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>5660</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>5650</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -13445,10 +13189,12 @@
       <c r="I387" t="n">
         <v>5645</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>5650</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -13479,17 +13225,11 @@
         <v>-729.4340347362358</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13518,17 +13258,11 @@
         <v>-681.4379347362359</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13557,17 +13291,11 @@
         <v>-681.4379347362359</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13596,17 +13324,11 @@
         <v>-687.7461347362359</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13635,17 +13357,11 @@
         <v>-687.7461347362359</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>5655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13674,17 +13390,11 @@
         <v>-686.7461347362359</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>5655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13713,17 +13423,11 @@
         <v>-1403.248234736236</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13752,17 +13456,11 @@
         <v>-1403.048234736236</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13791,17 +13489,11 @@
         <v>-2158.804834736236</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13830,17 +13522,11 @@
         <v>-2158.804834736236</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>5640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13874,12 +13560,10 @@
       <c r="I398" t="n">
         <v>5640</v>
       </c>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="n">
+        <v>5640</v>
+      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13913,10 +13597,12 @@
       <c r="I399" t="n">
         <v>5655</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>5640</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L399" t="n">
@@ -13952,10 +13638,12 @@
       <c r="I400" t="n">
         <v>5630</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>5640</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13991,12 +13679,10 @@
       <c r="I401" t="n">
         <v>5630</v>
       </c>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14030,10 +13716,12 @@
       <c r="I402" t="n">
         <v>5630</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>5630</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L402" t="n">
@@ -14069,10 +13757,12 @@
       <c r="I403" t="n">
         <v>5630</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>5630</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L403" t="n">
@@ -14108,12 +13798,10 @@
       <c r="I404" t="n">
         <v>5655</v>
       </c>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="n">
+        <v>5655</v>
+      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14147,10 +13835,12 @@
       <c r="I405" t="n">
         <v>5650</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>5655</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L405" t="n">
@@ -14186,10 +13876,12 @@
       <c r="I406" t="n">
         <v>5640</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>5655</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L406" t="n">
@@ -14225,12 +13917,10 @@
       <c r="I407" t="n">
         <v>5635</v>
       </c>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="n">
+        <v>5635</v>
+      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14264,10 +13954,12 @@
       <c r="I408" t="n">
         <v>5640</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>5635</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L408" t="n">
@@ -14303,10 +13995,12 @@
       <c r="I409" t="n">
         <v>5635</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>5635</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L409" t="n">
@@ -14342,12 +14036,10 @@
       <c r="I410" t="n">
         <v>5630</v>
       </c>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14381,10 +14073,12 @@
       <c r="I411" t="n">
         <v>5630</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>5630</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14420,10 +14114,12 @@
       <c r="I412" t="n">
         <v>5645</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>5630</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L412" t="n">
@@ -14459,12 +14155,10 @@
       <c r="I413" t="n">
         <v>5655</v>
       </c>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="n">
+        <v>5655</v>
+      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14498,10 +14192,12 @@
       <c r="I414" t="n">
         <v>5670</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>5655</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L414" t="n">
@@ -14537,10 +14233,12 @@
       <c r="I415" t="n">
         <v>5675</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>5655</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L415" t="n">
@@ -14571,17 +14269,11 @@
         <v>-2739.876157431272</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14610,17 +14302,11 @@
         <v>-2636.276157431272</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14649,17 +14335,11 @@
         <v>-2641.706157431272</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14688,17 +14368,11 @@
         <v>-2641.506157431272</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14727,17 +14401,11 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14766,17 +14434,11 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14805,17 +14467,11 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14844,17 +14500,11 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14883,17 +14533,11 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14922,17 +14566,11 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14961,17 +14599,11 @@
         <v>-3669.369657431272</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15000,17 +14632,11 @@
         <v>-4515.205157431272</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15044,12 +14670,10 @@
       <c r="I428" t="n">
         <v>5625</v>
       </c>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="n">
+        <v>5625</v>
+      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15083,10 +14707,12 @@
       <c r="I429" t="n">
         <v>5675</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>5625</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -15122,10 +14748,12 @@
       <c r="I430" t="n">
         <v>5660</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>5625</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L430" t="n">
@@ -15161,12 +14789,10 @@
       <c r="I431" t="n">
         <v>5665</v>
       </c>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="n">
+        <v>5665</v>
+      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15200,10 +14826,12 @@
       <c r="I432" t="n">
         <v>5670</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>5665</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L432" t="n">
@@ -15234,15 +14862,15 @@
         <v>-2887.143157431272</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>5680</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>5665</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L433" t="n">
@@ -15273,17 +14901,11 @@
         <v>-2830.638740749972</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>5680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15312,17 +14934,11 @@
         <v>-2892.306840749972</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>5695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15351,17 +14967,11 @@
         <v>-2890.372940749972</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15390,17 +15000,11 @@
         <v>-2890.372940749972</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>5700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15037,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15470,11 +15070,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15507,11 +15103,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15544,11 +15136,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15581,11 +15169,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15618,11 +15202,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15655,11 +15235,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15692,11 +15268,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +15301,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15766,11 +15334,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +15367,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15840,11 +15400,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15877,11 +15433,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15914,11 +15466,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15947,17 +15495,11 @@
         <v>1499.140259250028</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>5705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15990,11 +15532,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16023,17 +15561,11 @@
         <v>1429.629259250028</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>5705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16062,17 +15594,11 @@
         <v>1389.753359250028</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>5715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16101,17 +15627,11 @@
         <v>1361.315459250028</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>5710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16144,11 +15664,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16181,11 +15697,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16214,17 +15726,11 @@
         <v>1302.745759250028</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>5700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16253,17 +15759,11 @@
         <v>1302.745759250028</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>5700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16292,17 +15792,11 @@
         <v>1302.745759250028</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>5700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16335,11 +15829,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16372,11 +15862,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16409,11 +15895,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16446,11 +15928,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16483,11 +15961,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16520,11 +15994,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16557,11 +16027,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16594,11 +16060,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16631,11 +16093,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16668,11 +16126,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16705,11 +16159,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16742,11 +16192,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16779,11 +16225,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16816,11 +16258,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16853,11 +16291,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16890,11 +16324,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16927,11 +16357,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16964,11 +16390,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17001,11 +16423,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17038,11 +16456,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17075,11 +16489,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17112,11 +16522,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +16555,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17186,11 +16588,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17223,11 +16621,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17260,11 +16654,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17297,11 +16687,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17334,11 +16720,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17371,11 +16753,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17408,11 +16786,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17445,11 +16819,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17482,11 +16852,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17519,11 +16885,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17556,11 +16918,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17593,11 +16951,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17630,11 +16984,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17667,11 +17017,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17704,11 +17050,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17741,11 +17083,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17778,11 +17116,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17815,17 +17149,13 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
       <c r="M502" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ETC.xlsx
+++ b/BackTest/2019-10-30 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>15660.62438437572</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14738.17500306053</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14710.22780306053</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>14819.03550306053</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>14811.56000306053</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>14425.97000306053</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>14104.00710306053</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -11605,14 +11605,10 @@
         <v>-467.8179627087428</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>5615</v>
-      </c>
-      <c r="J340" t="n">
-        <v>5615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
@@ -11642,19 +11638,11 @@
         <v>-262.0024627087428</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>5630</v>
-      </c>
-      <c r="J341" t="n">
-        <v>5615</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11686,14 +11674,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>5615</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13108,14 +13090,10 @@
         <v>-727.9431347362358</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>5650</v>
-      </c>
-      <c r="J385" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
@@ -13148,14 +13126,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>5650</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13184,19 +13156,11 @@
         <v>-730.4340347362358</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>5645</v>
-      </c>
-      <c r="J387" t="n">
-        <v>5650</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13357,10 +13321,14 @@
         <v>-687.7461347362359</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J392" t="n">
+        <v>5655</v>
+      </c>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
@@ -13390,11 +13358,19 @@
         <v>-686.7461347362359</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J393" t="n">
+        <v>5655</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13426,8 +13402,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>5655</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13555,14 +13537,10 @@
         <v>-2123.754834736236</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>5640</v>
-      </c>
-      <c r="J398" t="n">
-        <v>5640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
@@ -13592,97 +13570,89 @@
         <v>-2164.554834736236</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>5655</v>
-      </c>
-      <c r="J399" t="n">
-        <v>5640</v>
-      </c>
-      <c r="K399" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C400" t="n">
+        <v>5630</v>
+      </c>
+      <c r="D400" t="n">
+        <v>5630</v>
+      </c>
+      <c r="E400" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F400" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-2164.554834736236</v>
+      </c>
+      <c r="H400" t="n">
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>5630</v>
+      </c>
+      <c r="J400" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C401" t="n">
+        <v>5630</v>
+      </c>
+      <c r="D401" t="n">
+        <v>5630</v>
+      </c>
+      <c r="E401" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F401" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-2164.554834736236</v>
+      </c>
+      <c r="H401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>5630</v>
+      </c>
+      <c r="J401" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K401" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>5630</v>
-      </c>
-      <c r="C400" t="n">
-        <v>5630</v>
-      </c>
-      <c r="D400" t="n">
-        <v>5630</v>
-      </c>
-      <c r="E400" t="n">
-        <v>5630</v>
-      </c>
-      <c r="F400" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-2164.554834736236</v>
-      </c>
-      <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>5630</v>
-      </c>
-      <c r="J400" t="n">
-        <v>5640</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>5630</v>
-      </c>
-      <c r="C401" t="n">
-        <v>5630</v>
-      </c>
-      <c r="D401" t="n">
-        <v>5630</v>
-      </c>
-      <c r="E401" t="n">
-        <v>5630</v>
-      </c>
-      <c r="F401" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-2164.554834736236</v>
-      </c>
-      <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>5630</v>
-      </c>
-      <c r="J401" t="n">
-        <v>5630</v>
-      </c>
-      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13760,48 +13730,48 @@
       <c r="J403" t="n">
         <v>5630</v>
       </c>
-      <c r="K403" t="inlineStr">
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>5650</v>
+      </c>
+      <c r="C404" t="n">
+        <v>5650</v>
+      </c>
+      <c r="D404" t="n">
+        <v>5650</v>
+      </c>
+      <c r="E404" t="n">
+        <v>5650</v>
+      </c>
+      <c r="F404" t="n">
+        <v>63.4021</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-2227.756934736236</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J404" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K404" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>5650</v>
-      </c>
-      <c r="C404" t="n">
-        <v>5650</v>
-      </c>
-      <c r="D404" t="n">
-        <v>5650</v>
-      </c>
-      <c r="E404" t="n">
-        <v>5650</v>
-      </c>
-      <c r="F404" t="n">
-        <v>63.4021</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-2227.756934736236</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>5655</v>
-      </c>
-      <c r="J404" t="n">
-        <v>5655</v>
-      </c>
-      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13836,7 +13806,7 @@
         <v>5650</v>
       </c>
       <c r="J405" t="n">
-        <v>5655</v>
+        <v>5630</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -13877,50 +13847,50 @@
         <v>5640</v>
       </c>
       <c r="J406" t="n">
-        <v>5655</v>
-      </c>
-      <c r="K406" t="inlineStr">
+        <v>5640</v>
+      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>5640</v>
+      </c>
+      <c r="C407" t="n">
+        <v>5640</v>
+      </c>
+      <c r="D407" t="n">
+        <v>5640</v>
+      </c>
+      <c r="E407" t="n">
+        <v>5640</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.200177304964539</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-2571.193157431272</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>5635</v>
+      </c>
+      <c r="J407" t="n">
+        <v>5640</v>
+      </c>
+      <c r="K407" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>5640</v>
-      </c>
-      <c r="C407" t="n">
-        <v>5640</v>
-      </c>
-      <c r="D407" t="n">
-        <v>5640</v>
-      </c>
-      <c r="E407" t="n">
-        <v>5640</v>
-      </c>
-      <c r="F407" t="n">
-        <v>0.200177304964539</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-2571.193157431272</v>
-      </c>
-      <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>5635</v>
-      </c>
-      <c r="J407" t="n">
-        <v>5635</v>
-      </c>
-      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13955,7 +13925,7 @@
         <v>5640</v>
       </c>
       <c r="J408" t="n">
-        <v>5635</v>
+        <v>5640</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -13998,48 +13968,48 @@
       <c r="J409" t="n">
         <v>5635</v>
       </c>
-      <c r="K409" t="inlineStr">
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C410" t="n">
+        <v>5630</v>
+      </c>
+      <c r="D410" t="n">
+        <v>5630</v>
+      </c>
+      <c r="E410" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F410" t="n">
+        <v>2</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-2616.786257431272</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>5630</v>
+      </c>
+      <c r="J410" t="n">
+        <v>5635</v>
+      </c>
+      <c r="K410" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>5630</v>
-      </c>
-      <c r="C410" t="n">
-        <v>5630</v>
-      </c>
-      <c r="D410" t="n">
-        <v>5630</v>
-      </c>
-      <c r="E410" t="n">
-        <v>5630</v>
-      </c>
-      <c r="F410" t="n">
-        <v>2</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-2616.786257431272</v>
-      </c>
-      <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>5630</v>
-      </c>
-      <c r="J410" t="n">
-        <v>5630</v>
-      </c>
-      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14074,7 +14044,7 @@
         <v>5630</v>
       </c>
       <c r="J411" t="n">
-        <v>5630</v>
+        <v>5635</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14115,50 +14085,50 @@
         <v>5645</v>
       </c>
       <c r="J412" t="n">
-        <v>5630</v>
-      </c>
-      <c r="K412" t="inlineStr">
+        <v>5645</v>
+      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>5670</v>
+      </c>
+      <c r="C413" t="n">
+        <v>5670</v>
+      </c>
+      <c r="D413" t="n">
+        <v>5670</v>
+      </c>
+      <c r="E413" t="n">
+        <v>5670</v>
+      </c>
+      <c r="F413" t="n">
+        <v>277.8208</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-2215.572357431272</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J413" t="n">
+        <v>5645</v>
+      </c>
+      <c r="K413" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>5670</v>
-      </c>
-      <c r="C413" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D413" t="n">
-        <v>5670</v>
-      </c>
-      <c r="E413" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F413" t="n">
-        <v>277.8208</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-2215.572357431272</v>
-      </c>
-      <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>5655</v>
-      </c>
-      <c r="J413" t="n">
-        <v>5655</v>
-      </c>
-      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14193,7 +14163,7 @@
         <v>5670</v>
       </c>
       <c r="J414" t="n">
-        <v>5655</v>
+        <v>5645</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14234,46 +14204,50 @@
         <v>5675</v>
       </c>
       <c r="J415" t="n">
-        <v>5655</v>
-      </c>
-      <c r="K415" t="inlineStr">
+        <v>5675</v>
+      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>5660</v>
+      </c>
+      <c r="C416" t="n">
+        <v>5660</v>
+      </c>
+      <c r="D416" t="n">
+        <v>5660</v>
+      </c>
+      <c r="E416" t="n">
+        <v>5660</v>
+      </c>
+      <c r="F416" t="n">
+        <v>525.3038</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-2739.876157431272</v>
+      </c>
+      <c r="H416" t="n">
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J416" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K416" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>5660</v>
-      </c>
-      <c r="C416" t="n">
-        <v>5660</v>
-      </c>
-      <c r="D416" t="n">
-        <v>5660</v>
-      </c>
-      <c r="E416" t="n">
-        <v>5660</v>
-      </c>
-      <c r="F416" t="n">
-        <v>525.3038</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-2739.876157431272</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14302,11 +14276,19 @@
         <v>-2636.276157431272</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J417" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14335,10 +14317,14 @@
         <v>-2641.706157431272</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>5670</v>
+      </c>
+      <c r="J418" t="n">
+        <v>5670</v>
+      </c>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
@@ -14368,11 +14354,19 @@
         <v>-2641.506157431272</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>5660</v>
+      </c>
+      <c r="J419" t="n">
+        <v>5670</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14401,11 +14395,19 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>5665</v>
+      </c>
+      <c r="J420" t="n">
+        <v>5670</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14434,10 +14436,14 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>5670</v>
+      </c>
+      <c r="J421" t="n">
+        <v>5670</v>
+      </c>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14467,11 +14473,19 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>5670</v>
+      </c>
+      <c r="J422" t="n">
+        <v>5670</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14500,11 +14514,19 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J423" t="n">
+        <v>5670</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14533,10 +14555,14 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J424" t="n">
+        <v>5675</v>
+      </c>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
@@ -14566,11 +14592,19 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J425" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +14633,19 @@
         <v>-3669.369657431272</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J426" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14632,11 +14674,19 @@
         <v>-4515.205157431272</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>5630</v>
+      </c>
+      <c r="J427" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14671,9 +14721,13 @@
         <v>5625</v>
       </c>
       <c r="J428" t="n">
-        <v>5625</v>
-      </c>
-      <c r="K428" t="inlineStr"/>
+        <v>5675</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14708,11 +14762,11 @@
         <v>5675</v>
       </c>
       <c r="J429" t="n">
-        <v>5625</v>
+        <v>5675</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14749,11 +14803,11 @@
         <v>5660</v>
       </c>
       <c r="J430" t="n">
-        <v>5625</v>
+        <v>5675</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L430" t="n">
@@ -14790,9 +14844,13 @@
         <v>5665</v>
       </c>
       <c r="J431" t="n">
-        <v>5665</v>
-      </c>
-      <c r="K431" t="inlineStr"/>
+        <v>5675</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14827,11 +14885,11 @@
         <v>5670</v>
       </c>
       <c r="J432" t="n">
-        <v>5665</v>
+        <v>5675</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L432" t="n">
@@ -14866,11 +14924,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>5665</v>
+        <v>5675</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L433" t="n">
@@ -14904,8 +14962,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14934,11 +14998,19 @@
         <v>-2892.306840749972</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>5695</v>
+      </c>
+      <c r="J435" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14967,11 +15039,19 @@
         <v>-2890.372940749972</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J436" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +15083,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15036,8 +15122,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +15161,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15102,8 +15200,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +15239,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15168,8 +15278,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15201,8 +15317,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15234,8 +15356,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15267,8 +15395,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15300,8 +15434,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15333,8 +15473,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15366,8 +15512,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15399,8 +15551,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15432,8 +15590,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15465,8 +15629,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +15668,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15531,8 +15707,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15564,8 +15746,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15597,8 +15785,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15630,8 +15824,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15663,8 +15863,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15696,8 +15902,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15729,8 +15941,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15762,8 +15980,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15795,8 +16019,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15828,8 +16058,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15861,8 +16097,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15894,8 +16136,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15927,8 +16175,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +16214,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15993,8 +16253,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16026,8 +16292,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16059,8 +16331,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16092,8 +16370,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16125,8 +16409,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16158,8 +16448,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16191,8 +16487,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16224,8 +16526,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16257,8 +16565,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16290,8 +16604,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16323,8 +16643,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16356,8 +16682,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16389,8 +16721,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16422,8 +16760,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16455,8 +16799,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16488,8 +16838,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16521,8 +16877,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16554,8 +16916,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16587,8 +16955,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16620,8 +16994,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +17033,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16686,8 +17072,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16719,8 +17111,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16752,8 +17150,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16785,8 +17189,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16818,8 +17228,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16851,8 +17267,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +17306,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16917,8 +17345,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16950,8 +17384,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16983,8 +17423,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17016,8 +17462,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17049,8 +17501,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17082,8 +17540,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17115,8 +17579,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17148,8 +17618,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
